--- a/seeds/schemas/tenants.xlsx
+++ b/seeds/schemas/tenants.xlsx
@@ -5,12 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="columns_mapper" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="tenant" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="page" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="section" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="partial_type" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="page_section" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="partial" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="252">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -72,6 +76,66 @@
     <t xml:space="preserve">tenant_id**tenants_schema.tenant**tenant_name</t>
   </si>
   <si>
+    <t xml:space="preserve">page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page_id**tenants_schema.page**page_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_id**tenants_schema.section**section_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_type_id**tenants_schema.partial_type**partial_type_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page_section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page_id***tenants_schema.page_section***tenants_schema.section***section_id***page_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_id**tenants_schema.partial**partial_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_button_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_button_page_id**page_id**tenants_schema.page**page_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_button_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_button_page_id**page_id**tenants_schema.page**page_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_id**tenants_schema.page**tenant_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_id**tenants_schema.section**tenant_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant_id**tenants_schema.partial**tenant_name</t>
+  </si>
+  <si>
     <t xml:space="preserve">tenant_name</t>
   </si>
   <si>
@@ -120,34 +184,25 @@
     <t xml:space="preserve">ABC Hotels</t>
   </si>
   <si>
-    <t xml:space="preserve">شركة التقنية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123 Tech Street, Silicon Valley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شارع التقنية 123، وادي السيليكون</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leading technology solutions company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شركة رائدة في حلول التقنية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info@techcorp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logo_vertical.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logo_dark.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logo_dark_vertical.png</t>
+    <t xml:space="preserve"> ABC Hotels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madinet Elahlam, 724 El-Horeya Rd, لوران، Qesm AR Ramel، Alexandria Governorate 5451112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ABC Hotels company has the capability to assist business owners in securing investment opportunities and planning for them in terms of location, construction, implementation, and operation of hotels, resorts, service apartments, and restaurants  The company’s expertise and resources can support business owners throughout the entire life cycle of a hospitality project - from site selection and feasibility analysis to design, construction, and operational management. ABC Hotels’ comprehensive approach allows investors to leverage the company’s proven track record and industry knowledge to bring their hospitality ventures to fruition.  Overall, the ABC Hotels company is positioned to be a valuable strategic partner for business owners seeking to capitalize on opportunities in the hospitality sector. Its ability to provide end to-end support can streamline the investment process and increase the likelihood of a project’s long-term viability and profitability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركة اي بي سي هوتلز لديها القدرة على مساعدة أصحاب الأعمال في تأمين فرص الاستثمار والتخطيط لها من حيث الموقع والبناء والتنفيذ والتشغيل للفنادق والمنتجعات والشقق الفندقية والمطاعم. يمكن أن تدعم خبرات الشركة ومواردها أصحاب الأعمال طوال دورة حياة مشروع الضيافة بأكملها - من اختيار الموقع وتحليل الجدوى إلى التصميم والبناء والإدارة التشغيلية. يتيح النهج الشامل لشركة اي بي سي هوتلز للمستثمرين الاستفادة من سجل الشركة الحافل بالانجازات ومعرفتها الصناعية لتحقيق مشاريعهم في مجال الضيافة. بشكل عام، فإن شركة اي بي سي هوتلز في وضع يسمح لها بأن تكون شريكًا استراتيجيًا قيّمًا لأصحاب الأعمال الذين يسعون إلى الاستفادة من الفرص في قطاع الضيافة. ويمكن لقدرتها على تقديم الدعم الشامل تبسيط عملية الاستثمار وزيادة احتمالية الجدوى والربحية طويلة الأجل للمشروع.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@abchotels-eg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenats/abchotels.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenats/abchotels_light.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Innovation|Integrity|Excellence</t>
@@ -159,48 +214,6 @@
     <t xml:space="preserve">To be the global leader in tech</t>
   </si>
   <si>
-    <t xml:space="preserve">Tech Innovators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شركة المبتكرون التقنيون</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456 Innovation Road, Tech City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">طريق الابتكار 456، مدينة التقنية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovating the future of technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ابتكار مستقبل التقنية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">support@techinnovators.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logo2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logo2_vertical.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logo2_dark.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logo2_dark_vertical.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer Focus|Collaboration|Sustainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To empower businesses through technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To shape the future of tech solutions</t>
-  </si>
-  <si>
     <t xml:space="preserve">page_name</t>
   </si>
   <si>
@@ -246,25 +259,25 @@
     <t xml:space="preserve">الصفحة الرئيسية الفعلية</t>
   </si>
   <si>
+    <t xml:space="preserve">/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home_cover.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home_video.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landing,homepage,company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to our homepage</t>
+  </si>
+  <si>
     <t xml:space="preserve">home</t>
   </si>
   <si>
-    <t xml:space="preserve">/home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home_cover.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">home_video.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landing,homepage,company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to our homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About</t>
+    <t xml:space="preserve">About Us</t>
   </si>
   <si>
     <t xml:space="preserve">من نحن</t>
@@ -276,54 +289,27 @@
     <t xml:space="preserve">عن شركتنا</t>
   </si>
   <si>
+    <t xml:space="preserve">About us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_cover.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about_video.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about,company,info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn more about us</t>
+  </si>
+  <si>
     <t xml:space="preserve">about</t>
   </si>
   <si>
-    <t xml:space="preserve">/about</t>
-  </si>
-  <si>
-    <t xml:space="preserve">about_cover.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">about_video.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">about,company,info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn more about us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المدونة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The company blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدونة الشركة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blog_cover.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blog_video.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blog,articles,news</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read our latest articles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Projects</t>
   </si>
   <si>
@@ -336,24 +322,24 @@
     <t xml:space="preserve">مشاريعنا</t>
   </si>
   <si>
+    <t xml:space="preserve">/projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projects_cover.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projects_video.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projects,portfolio,work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discover our work</t>
+  </si>
+  <si>
     <t xml:space="preserve">projects</t>
   </si>
   <si>
-    <t xml:space="preserve">/projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projects_cover.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projects_video.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">projects,portfolio,work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discover our work</t>
-  </si>
-  <si>
     <t xml:space="preserve">Services</t>
   </si>
   <si>
@@ -366,22 +352,49 @@
     <t xml:space="preserve">الخدمات التي نقدمها</t>
   </si>
   <si>
+    <t xml:space="preserve">/services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services_cover.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services_video.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">services,offerings,solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore our services</t>
+  </si>
+  <si>
     <t xml:space="preserve">services</t>
   </si>
   <si>
-    <t xml:space="preserve">/services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services_cover.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services_video.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">services,offerings,solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explore our services</t>
+    <t xml:space="preserve">Gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاستوديو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The company gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallery_cover.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallery_video.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallery,abc hotels gallery,abc hotels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view abc hotels gallery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gallery</t>
   </si>
   <si>
     <t xml:space="preserve">Contact</t>
@@ -396,32 +409,410 @@
     <t xml:space="preserve">صفحة اتصل بنا</t>
   </si>
   <si>
+    <t xml:space="preserve">/contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_cover.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_video.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact,email,phone,location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get in touch with us</t>
+  </si>
+  <si>
     <t xml:space="preserve">contact</t>
   </si>
   <si>
-    <t xml:space="preserve">/contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_cover.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_video.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact,email,phone,location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get in touch with us</t>
+    <t xml:space="preserve">section_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_name_ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_description_ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_button_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC Hotels: Attention to Basics &amp; Culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إقامة بلمسة فريدة  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where seamless management meets exceptional hospitality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من خلال إدارة متميزة وخدمة عالية الرفاهية 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images/abchotels/banner.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore Our Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عن الشركة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step into a world of exceptional hospitality with ABC Hotels. With a perfect mix of expertise and commitment, ABC focuses on enhancing guest experiences while optimizing operations for property owners. From top-tier amenities to prime locations, every detail is carefully managed to ensure each stay is not just memorable, but a treasured experience for our guests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images/abchotes/rhactus_san.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home logos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اللوجوهات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/logo-pretzel.webp,/images/abchotels/rhactuslogo.png,/images/abchotels/yalabina.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اهدافنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At ABC Hotels, we take great pride in managing a distinctive portfolio of hotels, each offering a unique combination of luxury, comfort, and personalized service. Whether it''s a peaceful seaside getaway, a vibrant city retreat, or a picturesque escape, our locations provide unforgettable experiences. Each property exemplifies our dedication to excellence, ensuring world-class amenities, exceptional hospitality, and meticulous attention to detail throughout our guests'' stay. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> نفخر في فنادق ABC بإدارة مجموعة مميزة من الفنادق، حيث يقدم كل منها مزيجًا فريدًا من الفخامة والراحة والخدمة الشخصية. سواء كان ذلك في إجازة هادئة على الشاطئ، أو ملاذًا حضريًا مفعمًا بالحيوية، أو إقامة ساحرة في أحد المدن المميزة، تستطيع مواقعنا توفير تجارب لا تُنسى.   كل مشروع يعكس التزامنا بالتميز، مما يضمن للضيوف مرافق من فئة عالمية، ضيافة استثنائية، وسلاسة أدق التفاصيل خلال إقامتهم. استكشف واختبر الفرق مع فنادق ABC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">about intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/rhactus_alamein.webp,/images/rhactus-2.webp,/images/abchotels/rhactus_san.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet The Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فريق العمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المشروعات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_type_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_featured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_brief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_button_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_button_icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_button_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial_links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Management &amp; Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/gallery/restuarant.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC provides full-service management for its hotel properties, ensuring seamless operations, exceptional guest satisfaction, and consistent service excellence at all its locations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&amp;B Catering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/gallery/burger.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images/abchotels/logo-pretzel.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The company offers catering services for food and beverages offering a wide range of international and oriental cuisines. It''s also home to its very own food concept - Pretzel Burger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yalabina Reservation Platform &amp; P.M.S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/gallery/room.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/yalabina.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC has developed the “Yalabina” reservation platform and an upcoming property management system (PMS), designed to streamline and ensure precise operations as well as boost bookings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC has developed the “Yalabina” reservation platform and an upcoming property management system (PMS), designed to streamline and ensure precise operations as well as boost bookings.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pretzel burgers logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/logo-pretzel.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pretzel.exploremelon.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yalabina logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://yalabina.com/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhactus hotel logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rhactushotel.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhactus New Alamein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/gallery/rhactuss.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW ALAMEIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhactus House San Stefano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/rhactus_san.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rhss.rhactushotel.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdel Hakim El Nahry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/team/Hakim-El-Nahry.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO and Co-founder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With over four decades of experience in the hospitality industry, Hakim has progressively ascended to leadership roles since 1993. Having held senior executive positions with renowned international hospitality companies and prominent global developers, he has demonstrated exceptional expertise and leadership in driving the growth and success of the industry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/team/Mohamed-Ahmed.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of the Board of Directors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With extensive experience in the hotel and resort industry since 1986, Mohamed has held several senior management positions, including Deputy General Manager and Director of the Food and Beverage sector. He has contributed to the success of renowned international hotels such as Novotel, Pyramisa, Sonesta, El Alamein Hotel, and Emaar Egypt (Marassi). His most recent position was Deputy General Manager and Food and Beverage Sector Manager at Emaar Misr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assem Kamal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/team/Assem-Kamal.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With a wealth of experience in the hotel and resort industry since 2004, Assem has held several senior administrative roles, including General Manager of El Alamein Hotel and Director of the Rooms Sector. He has contributed to renowned international hotels such as Radisson Blu Dubai, Nuran Green Dubai, Address Dubai Hotel, El Alamein Hotel, and Emaar Misr (Marassi). His most recent position was General Manager of El Alamein Hotel, having previously served as Director of the Rooms Sector at Emaar Misr for a period of 10 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohamed Elkoumy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/images/abchotels/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">team/Mohamed-Nafea.webp</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A distinguished board member with a specialization in tourism and property management, Mohamed brings valuable expertise in these sectors, contributing significantly to the strategic direction and growth of the company.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With extensive experience in the hotel and resort industry since 2001, Mohamed has held several senior management positions, including Director of the Human Resources sector. He has been part of renowned international hotels such as Hilton Cairo Pyramids, Hilton Resort Hurghada, El Alamein Hotel, and Emaar Misr (Marassi). His most recent position was Director of the Human Resources Sector at Emaar Egypt (Marassi), where he served for 10 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitality Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/services/HospitalityServices.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC Hotels provides top-tier hotel management services that capitalize on enhancing operational performance, maximizing revenue, and maintaining the integrity of every property it manages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and Beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/services/FoodAndBeverage.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC Hotels specializes in providing comprehensive hospitality services designed to enhance both the guest experience and operational efficiency. Our offerings are tailored for both hotel and community management, ensuring smooth day-to-day operations and a welcoming atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/services/Consultancy.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our food and beverage quality assurance ensure top-tier quality, safety, and cost-effectiveness, providing exceptional dining experiences while optimizing operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/rhactus_alamein.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A luxurious hotel complex in the heart of New Alamein City, offering modern amenities and premium hospitality services tailored for both leisure and business travelers. Experience unparalleled comfort and sophistication in a prime location, designed to meet the needs of discerning guests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external-link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{   "facebook": "https://www.facebook.com/profile.php?id=61565334736199",   "instagram": "https://www.instagram.com/rhactushousesanstefano",   "linkedin": "https://www.linkedin.com/company/rhactushousesanstefano/" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Coast, K102 Alexandria - Marsa Matrouh Coastal Road, New Alamein City, 51718 El Alamein, Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhactus House - San Stefano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boutique serviced apartments in Alexandria''s prime location, combining historical charm with modern luxury and Mediterranean views.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{   "instagram": "https://www.instagram.com/rhactushousesanstefano/",   "linkedin": "https://www.linkedin.com/company/rhactushousesanstefano?fbclid=PAZXh0bgNhZW0CMTEAAaYKUBr7SX_dyOA9vFzYVlZwoFv2juCymvJ6WE9uoiJwk6lVwNWUlOS61yM_aem_RFHPj3k_Hkn66AP_ay4_jg" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402 El-Gaish Road, 5452054 Alexandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretzel Burgers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/abchotels/pretzel.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our flagship gourmet burger restaurant concept, offering artisanal sandwiches crafted with premium ingredients, currently operating within ABC Hotel properties. Experience a unique blend of flavors and culinary excellence in a vibrant dining atmosphere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{   "facebook": "https://www.facebook.com/pretzelburgers.eg?mibextid=ZbWKwL",   "instagram": "https://www.instagram.com/pretzelburgers.eg/?igshid=MzRlODBiNWFlZA%3D%3D" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumla Mall Market, next to Downtown, Km 102 Alexandria-Matrouh Coastal Road, El Alamein, Marsa Matrouh Governorate, Egypt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +853,40 @@
       <color theme="1"/>
       <name val="DejaVu Serif"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -513,7 +938,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -540,6 +965,42 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -750,13 +1211,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="95.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="98.16"/>
@@ -824,6 +1285,94 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +1391,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="17.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -869,146 +1418,102 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>123456789</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>987654321</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="info@abchotels-eg.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1017,7 +1522,7 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1027,10 +1532,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1051,496 +1556,268 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1552,4 +1829,1512 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="51.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="39.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="34.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="32.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="9.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="30.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="157.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="234.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="28.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="17.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="28.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="232.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="7.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="9" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="78.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="78.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" display="https://rhactushotel.com/"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://rhactushotel.com/"/>
+    <hyperlink ref="K18" r:id="rId3" display="https://rhactushotel.com/"/>
+    <hyperlink ref="L19" r:id="rId4" display="{   &quot;instagram&quot;: &quot;https://www.instagram.com/rhactushousesanstefano/&quot;,   &quot;linkedin&quot;: &quot;https://www.linkedin.com/company/rhactushousesanstefano?fbclid=PAZXh0bgNhZW0CMTEAAaYKUBr7SX_dyOA9vFzYVlZwoFv2juCymvJ6WE9uoiJwk6lVwNWUlOS61yM_aem_RFHPj3k_Hkn66AP_ay4_jg&quot; }"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>